--- a/biology/Mycologie/Tricholoma_sulphureum/Tricholoma_sulphureum.xlsx
+++ b/biology/Mycologie/Tricholoma_sulphureum/Tricholoma_sulphureum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricholome soufré
 Tricholoma sulphureum, le Tricholome soufré, est une espèce de champignons agaricomycètes du genre Tricholoma et de la famille des Tricholomataceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau (25–70 mm) est d'abord convexe puis avec l'âge, il s’aplatit et se déprime mais en gardant un mamelon central marqué.
 </t>
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon d'automne que l'on rencontre fréquemment sous les feuillus et plus rarement sous des conifères.
 </t>
@@ -574,7 +590,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'est pas considéré comme comestible. On pense qu'il pourrait provoquer des troubles gasto-intestinaux ou contenir de l'hémolysine.
 </t>
@@ -605,7 +623,9 @@
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tricholome soufré ressemble au Tricholome équestre. Il s'en distingue par l'odeur et la couleur.
 </t>
@@ -636,10 +656,12 @@
           <t>Taxonomie et systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre aussi l'orthographe Tricholoma sulfureum, son nom est dû à son odeur de soufre.
-Tricholoma bufonium autrefois décrite comme une espèce à part entière est maintenant considérée comme une variété de Tricholoma sulphureum [1].
+Tricholoma bufonium autrefois décrite comme une espèce à part entière est maintenant considérée comme une variété de Tricholoma sulphureum .
 </t>
         </is>
       </c>
